--- a/corpus/korpusinfo.xlsx
+++ b/corpus/korpusinfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="580" windowWidth="27880" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27880" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="270">
   <si>
     <t>Titel</t>
   </si>
@@ -837,6 +837,9 @@
   </si>
   <si>
     <t>Help</t>
+  </si>
+  <si>
+    <t>Let_It_Be</t>
   </si>
 </sst>
 </file>
@@ -1248,9 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L218"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H165" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K186" sqref="K186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6537,27 +6542,27 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="12">SUBSTITUTE(B131,")","")</f>
+        <f t="shared" ref="A131:A195" si="12">SUBSTITUTE(B131,")","")</f>
         <v>martha_my_dear</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B194" si="13">SUBSTITUTE(C131,"(","")</f>
+        <f t="shared" ref="B131:B195" si="13">SUBSTITUTE(C131,"(","")</f>
         <v>martha_my_dear</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="14">SUBSTITUTE(D131,",","")</f>
+        <f t="shared" ref="C131:C195" si="14">SUBSTITUTE(D131,",","")</f>
         <v>martha_my_dear</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="15">SUBSTITUTE(E131,"'","")</f>
+        <f t="shared" ref="D131:D195" si="15">SUBSTITUTE(E131,"'","")</f>
         <v>martha_my_dear</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="16">SUBSTITUTE(F131,".","")</f>
+        <f t="shared" ref="E131:E195" si="16">SUBSTITUTE(F131,".","")</f>
         <v>martha_my_dear</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F194" si="17">LOWER(G131)</f>
+        <f t="shared" ref="F131:F195" si="17">LOWER(G131)</f>
         <v>martha_my_dear</v>
       </c>
       <c r="G131" t="s">
@@ -8731,77 +8736,77 @@
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
         <f t="shared" si="12"/>
-        <v>from_me_to_you</v>
+        <v>let_it_be</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="13"/>
-        <v>from_me_to_you</v>
+        <v>let_it_be</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="14"/>
-        <v>from_me_to_you</v>
+        <v>let_it_be</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="15"/>
-        <v>from_me_to_you</v>
+        <v>let_it_be</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="16"/>
-        <v>from_me_to_you</v>
+        <v>let_it_be</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="17"/>
-        <v>from_me_to_you</v>
+        <v>let_it_be</v>
       </c>
       <c r="G185" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="H185">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I185">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="J185" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K185" t="s">
         <v>7</v>
-      </c>
-      <c r="L185" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
         <f t="shared" si="12"/>
-        <v>thank_you_girl</v>
+        <v>from_me_to_you</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="13"/>
-        <v>thank_you_girl</v>
+        <v>from_me_to_you</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="14"/>
-        <v>thank_you_girl</v>
+        <v>from_me_to_you</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="15"/>
-        <v>thank_you_girl</v>
+        <v>from_me_to_you</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="16"/>
-        <v>thank_you_girl</v>
+        <v>from_me_to_you</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="17"/>
-        <v>thank_you_girl</v>
+        <v>from_me_to_you</v>
       </c>
       <c r="G186" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="H186">
+        <v>5</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J186" t="s">
         <v>63</v>
@@ -8816,36 +8821,33 @@
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
         <f t="shared" si="12"/>
-        <v>she_loves_you</v>
+        <v>thank_you_girl</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="13"/>
-        <v>she_loves_you</v>
+        <v>thank_you_girl</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="14"/>
-        <v>she_loves_you</v>
+        <v>thank_you_girl</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="15"/>
-        <v>she_loves_you</v>
+        <v>thank_you_girl</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="16"/>
-        <v>she_loves_you</v>
+        <v>thank_you_girl</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="17"/>
-        <v>she_loves_you</v>
+        <v>thank_you_girl</v>
       </c>
       <c r="G187" t="s">
-        <v>249</v>
-      </c>
-      <c r="H187">
-        <v>4.5</v>
+        <v>248</v>
       </c>
       <c r="I187">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>63</v>
@@ -8854,42 +8856,42 @@
         <v>7</v>
       </c>
       <c r="L187" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f t="shared" si="12"/>
-        <v>ill_get_you</v>
+        <v>she_loves_you</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="13"/>
-        <v>ill_get_you</v>
+        <v>she_loves_you</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="14"/>
-        <v>ill_get_you</v>
+        <v>she_loves_you</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="15"/>
-        <v>ill_get_you</v>
+        <v>she_loves_you</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="16"/>
-        <v>i'll_get_you</v>
+        <v>she_loves_you</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="17"/>
-        <v>i'll_get_you</v>
+        <v>she_loves_you</v>
       </c>
       <c r="G188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H188">
         <v>4.5</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J188" t="s">
         <v>63</v>
@@ -8904,36 +8906,36 @@
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f t="shared" si="12"/>
-        <v>i_want_to_hold_your_hand</v>
+        <v>ill_get_you</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="13"/>
-        <v>i_want_to_hold_your_hand</v>
+        <v>ill_get_you</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="14"/>
-        <v>i_want_to_hold_your_hand</v>
+        <v>ill_get_you</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="15"/>
-        <v>i_want_to_hold_your_hand</v>
+        <v>ill_get_you</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="16"/>
-        <v>i_want_to_hold_your_hand</v>
+        <v>i'll_get_you</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="17"/>
-        <v>i_want_to_hold_your_hand</v>
+        <v>i'll_get_you</v>
       </c>
       <c r="G189" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H189">
         <v>4.5</v>
       </c>
       <c r="I189">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
         <v>63</v>
@@ -8942,42 +8944,42 @@
         <v>7</v>
       </c>
       <c r="L189" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f t="shared" si="12"/>
-        <v>this_boy</v>
+        <v>i_want_to_hold_your_hand</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="13"/>
-        <v>this_boy</v>
+        <v>i_want_to_hold_your_hand</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="14"/>
-        <v>this_boy</v>
+        <v>i_want_to_hold_your_hand</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="15"/>
-        <v>this_boy</v>
+        <v>i_want_to_hold_your_hand</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="16"/>
-        <v>this_boy</v>
+        <v>i_want_to_hold_your_hand</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="17"/>
-        <v>this_boy</v>
+        <v>i_want_to_hold_your_hand</v>
       </c>
       <c r="G190" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H190">
         <v>4.5</v>
       </c>
       <c r="I190">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J190" t="s">
         <v>63</v>
@@ -8992,124 +8994,124 @@
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f t="shared" si="12"/>
-        <v>cry_for_a_shadow</v>
+        <v>this_boy</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="13"/>
-        <v>cry_for_a_shadow</v>
+        <v>this_boy</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="14"/>
-        <v>cry_for_a_shadow</v>
+        <v>this_boy</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="15"/>
-        <v>cry_for_a_shadow</v>
+        <v>this_boy</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="16"/>
-        <v>cry_for_a_shadow</v>
+        <v>this_boy</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="17"/>
-        <v>cry_for_a_shadow</v>
+        <v>this_boy</v>
       </c>
       <c r="G191" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H191">
         <v>4.5</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J191" t="s">
         <v>63</v>
       </c>
       <c r="K191" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="L191" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
         <f t="shared" si="12"/>
-        <v>i_feel_fine</v>
+        <v>cry_for_a_shadow</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="13"/>
-        <v>i_feel_fine</v>
+        <v>cry_for_a_shadow</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="14"/>
-        <v>i_feel_fine</v>
+        <v>cry_for_a_shadow</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="15"/>
-        <v>i_feel_fine</v>
+        <v>cry_for_a_shadow</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="16"/>
-        <v>i_feel_fine</v>
+        <v>cry_for_a_shadow</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="17"/>
-        <v>i_feel_fine</v>
+        <v>cry_for_a_shadow</v>
       </c>
       <c r="G192" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H192">
         <v>4.5</v>
       </c>
       <c r="I192">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
         <v>63</v>
       </c>
       <c r="K192" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="L192" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f t="shared" si="12"/>
-        <v>shes_a_woman</v>
+        <v>i_feel_fine</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="13"/>
-        <v>shes_a_woman</v>
+        <v>i_feel_fine</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="14"/>
-        <v>shes_a_woman</v>
+        <v>i_feel_fine</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="15"/>
-        <v>shes_a_woman</v>
+        <v>i_feel_fine</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="16"/>
-        <v>she's_a_woman</v>
+        <v>i_feel_fine</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="17"/>
-        <v>she's_a_woman</v>
+        <v>i_feel_fine</v>
       </c>
       <c r="G193" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H193">
         <v>4.5</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J193" t="s">
         <v>63</v>
@@ -9124,36 +9126,36 @@
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
         <f t="shared" si="12"/>
-        <v>yes_it_is</v>
+        <v>shes_a_woman</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="13"/>
-        <v>yes_it_is</v>
+        <v>shes_a_woman</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="14"/>
-        <v>yes_it_is</v>
+        <v>shes_a_woman</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="15"/>
-        <v>yes_it_is</v>
+        <v>shes_a_woman</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="16"/>
-        <v>yes_it_is</v>
+        <v>she's_a_woman</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="17"/>
-        <v>yes_it_is</v>
+        <v>she's_a_woman</v>
       </c>
       <c r="G194" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H194">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
         <v>63</v>
@@ -9162,42 +9164,42 @@
         <v>7</v>
       </c>
       <c r="L194" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A206" si="18">SUBSTITUTE(B195,")","")</f>
-        <v>im_down</v>
+        <f t="shared" si="12"/>
+        <v>yes_it_is</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" ref="B195:B206" si="19">SUBSTITUTE(C195,"(","")</f>
-        <v>im_down</v>
+        <f t="shared" si="13"/>
+        <v>yes_it_is</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C206" si="20">SUBSTITUTE(D195,",","")</f>
-        <v>im_down</v>
+        <f t="shared" si="14"/>
+        <v>yes_it_is</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D206" si="21">SUBSTITUTE(E195,"'","")</f>
-        <v>im_down</v>
+        <f t="shared" si="15"/>
+        <v>yes_it_is</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E206" si="22">SUBSTITUTE(F195,".","")</f>
-        <v>i'm_down</v>
+        <f t="shared" si="16"/>
+        <v>yes_it_is</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F206" si="23">LOWER(G195)</f>
-        <v>i'm_down</v>
+        <f t="shared" si="17"/>
+        <v>yes_it_is</v>
       </c>
       <c r="G195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H195">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J195" t="s">
         <v>63</v>
@@ -9206,42 +9208,42 @@
         <v>7</v>
       </c>
       <c r="L195" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f t="shared" si="18"/>
-        <v>we_can_work_it_out</v>
+        <f t="shared" ref="A196:A207" si="18">SUBSTITUTE(B196,")","")</f>
+        <v>im_down</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="19"/>
-        <v>we_can_work_it_out</v>
+        <f t="shared" ref="B196:B207" si="19">SUBSTITUTE(C196,"(","")</f>
+        <v>im_down</v>
       </c>
       <c r="C196" t="str">
-        <f t="shared" si="20"/>
-        <v>we_can_work_it_out</v>
+        <f t="shared" ref="C196:C207" si="20">SUBSTITUTE(D196,",","")</f>
+        <v>im_down</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="21"/>
-        <v>we_can_work_it_out</v>
+        <f t="shared" ref="D196:D207" si="21">SUBSTITUTE(E196,"'","")</f>
+        <v>im_down</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="22"/>
-        <v>we_can_work_it_out</v>
+        <f t="shared" ref="E196:E207" si="22">SUBSTITUTE(F196,".","")</f>
+        <v>i'm_down</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="23"/>
-        <v>we_can_work_it_out</v>
+        <f t="shared" ref="F196:F207" si="23">LOWER(G196)</f>
+        <v>i'm_down</v>
       </c>
       <c r="G196" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H196">
+        <v>4.5</v>
+      </c>
+      <c r="I196">
         <v>5</v>
-      </c>
-      <c r="I196">
-        <v>9</v>
       </c>
       <c r="J196" t="s">
         <v>63</v>
@@ -9250,42 +9252,42 @@
         <v>7</v>
       </c>
       <c r="L196" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
         <f t="shared" si="18"/>
-        <v>day_tripper</v>
+        <v>we_can_work_it_out</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="19"/>
-        <v>day_tripper</v>
+        <v>we_can_work_it_out</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="20"/>
-        <v>day_tripper</v>
+        <v>we_can_work_it_out</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="21"/>
-        <v>day_tripper</v>
+        <v>we_can_work_it_out</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="22"/>
-        <v>day_tripper</v>
+        <v>we_can_work_it_out</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="23"/>
-        <v>day_tripper</v>
+        <v>we_can_work_it_out</v>
       </c>
       <c r="G197" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H197">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I197">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J197" t="s">
         <v>63</v>
@@ -9300,36 +9302,36 @@
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
         <f t="shared" si="18"/>
-        <v>paperback_writer</v>
+        <v>day_tripper</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="19"/>
-        <v>paperback_writer</v>
+        <v>day_tripper</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="20"/>
-        <v>paperback_writer</v>
+        <v>day_tripper</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="21"/>
-        <v>paperback_writer</v>
+        <v>day_tripper</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="22"/>
-        <v>paperback_writer</v>
+        <v>day_tripper</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="23"/>
-        <v>paperback_writer</v>
+        <v>day_tripper</v>
       </c>
       <c r="G198" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H198">
         <v>4.5</v>
       </c>
       <c r="I198">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J198" t="s">
         <v>63</v>
@@ -9338,42 +9340,42 @@
         <v>7</v>
       </c>
       <c r="L198" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
         <f t="shared" si="18"/>
-        <v>rain</v>
+        <v>paperback_writer</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="19"/>
-        <v>rain</v>
+        <v>paperback_writer</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="20"/>
-        <v>rain</v>
+        <v>paperback_writer</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="21"/>
-        <v>rain</v>
+        <v>paperback_writer</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="22"/>
-        <v>rain</v>
+        <v>paperback_writer</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="23"/>
-        <v>rain</v>
+        <v>paperback_writer</v>
       </c>
       <c r="G199" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="H199">
         <v>4.5</v>
       </c>
       <c r="I199">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J199" t="s">
         <v>63</v>
@@ -9388,36 +9390,36 @@
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
         <f t="shared" si="18"/>
-        <v>lady_madonna</v>
+        <v>rain</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="19"/>
-        <v>lady_madonna</v>
+        <v>rain</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="20"/>
-        <v>lady_madonna</v>
+        <v>rain</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="21"/>
-        <v>lady_madonna</v>
+        <v>rain</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="22"/>
-        <v>lady_madonna</v>
+        <v>rain</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="23"/>
-        <v>lady_madonna</v>
+        <v>rain</v>
       </c>
       <c r="G200" t="s">
-        <v>261</v>
+        <v>73</v>
       </c>
       <c r="H200">
         <v>4.5</v>
       </c>
       <c r="I200">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J200" t="s">
         <v>63</v>
@@ -9426,45 +9428,48 @@
         <v>7</v>
       </c>
       <c r="L200" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f t="shared" si="18"/>
-        <v>the_inner_light</v>
+        <v>lady_madonna</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="19"/>
-        <v>the_inner_light</v>
+        <v>lady_madonna</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="20"/>
-        <v>the_inner_light</v>
+        <v>lady_madonna</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="21"/>
-        <v>the_inner_light</v>
+        <v>lady_madonna</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="22"/>
-        <v>the_inner_light</v>
+        <v>lady_madonna</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="23"/>
-        <v>the_inner_light</v>
+        <v>lady_madonna</v>
       </c>
       <c r="G201" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="H201">
+        <v>4.5</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J201" t="s">
         <v>63</v>
       </c>
       <c r="K201" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L201" t="s">
         <v>75</v>
@@ -9473,80 +9478,77 @@
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
         <f t="shared" si="18"/>
-        <v>hey_jude</v>
+        <v>the_inner_light</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="19"/>
-        <v>hey_jude</v>
+        <v>the_inner_light</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="20"/>
-        <v>hey_jude</v>
+        <v>the_inner_light</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="21"/>
-        <v>hey_jude</v>
+        <v>the_inner_light</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="22"/>
-        <v>hey_jude</v>
+        <v>the_inner_light</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="23"/>
-        <v>hey_jude</v>
+        <v>the_inner_light</v>
       </c>
       <c r="G202" t="s">
-        <v>263</v>
-      </c>
-      <c r="H202">
-        <v>4.5</v>
+        <v>262</v>
       </c>
       <c r="I202">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>63</v>
       </c>
       <c r="K202" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L202" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
         <f t="shared" si="18"/>
-        <v>dont_let_me_down</v>
+        <v>hey_jude</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="19"/>
-        <v>dont_let_me_down</v>
+        <v>hey_jude</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="20"/>
-        <v>dont_let_me_down</v>
+        <v>hey_jude</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="21"/>
-        <v>dont_let_me_down</v>
+        <v>hey_jude</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="22"/>
-        <v>don't_let_me_down</v>
+        <v>hey_jude</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="23"/>
-        <v>don't_let_me_down</v>
+        <v>hey_jude</v>
       </c>
       <c r="G203" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H203">
         <v>4.5</v>
       </c>
       <c r="I203">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J203" t="s">
         <v>63</v>
@@ -9555,42 +9557,42 @@
         <v>7</v>
       </c>
       <c r="L203" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
         <f t="shared" si="18"/>
-        <v>the_ballad_of_john_and_yoko</v>
+        <v>dont_let_me_down</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="19"/>
-        <v>the_ballad_of_john_and_yoko</v>
+        <v>dont_let_me_down</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="20"/>
-        <v>the_ballad_of_john_and_yoko</v>
+        <v>dont_let_me_down</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="21"/>
-        <v>the_ballad_of_john_and_yoko</v>
+        <v>dont_let_me_down</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="22"/>
-        <v>the_ballad_of_john_and_yoko</v>
+        <v>don't_let_me_down</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="23"/>
-        <v>the_ballad_of_john_and_yoko</v>
+        <v>don't_let_me_down</v>
       </c>
       <c r="G204" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I204">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J204" t="s">
         <v>63</v>
@@ -9599,45 +9601,48 @@
         <v>7</v>
       </c>
       <c r="L204" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
         <f t="shared" si="18"/>
-        <v>old_brown_shoe</v>
+        <v>the_ballad_of_john_and_yoko</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="19"/>
-        <v>old_brown_shoe</v>
+        <v>the_ballad_of_john_and_yoko</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="20"/>
-        <v>old_brown_shoe</v>
+        <v>the_ballad_of_john_and_yoko</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="21"/>
-        <v>old_brown_shoe</v>
+        <v>the_ballad_of_john_and_yoko</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="22"/>
-        <v>old_brown_shoe</v>
+        <v>the_ballad_of_john_and_yoko</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="23"/>
-        <v>old_brown_shoe</v>
+        <v>the_ballad_of_john_and_yoko</v>
       </c>
       <c r="G205" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="H205">
+        <v>5</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J205" t="s">
         <v>63</v>
       </c>
       <c r="K205" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L205" t="s">
         <v>78</v>
@@ -9646,101 +9651,142 @@
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
         <f t="shared" si="18"/>
-        <v>you_know_my_name_look_up_the_number</v>
+        <v>old_brown_shoe</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="19"/>
-        <v>you_know_my_name_look_up_the_number)</v>
+        <v>old_brown_shoe</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="20"/>
-        <v>you_know_my_name_(look_up_the_number)</v>
+        <v>old_brown_shoe</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="21"/>
-        <v>you_know_my_name_(look_up_the_number)</v>
+        <v>old_brown_shoe</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="22"/>
-        <v>you_know_my_name_(look_up_the_number)</v>
+        <v>old_brown_shoe</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="23"/>
-        <v>you_know_my_name_(look_up_the_number)</v>
+        <v>old_brown_shoe</v>
       </c>
       <c r="G206" t="s">
-        <v>267</v>
-      </c>
-      <c r="H206">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="I206">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>63</v>
       </c>
       <c r="K206" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L206" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" t="str">
+        <f t="shared" si="18"/>
+        <v>you_know_my_name_look_up_the_number</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="19"/>
+        <v>you_know_my_name_look_up_the_number)</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="20"/>
+        <v>you_know_my_name_(look_up_the_number)</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="21"/>
+        <v>you_know_my_name_(look_up_the_number)</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="22"/>
+        <v>you_know_my_name_(look_up_the_number)</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="23"/>
+        <v>you_know_my_name_(look_up_the_number)</v>
+      </c>
+      <c r="G207" t="s">
+        <v>267</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="I207">
+        <v>5</v>
+      </c>
+      <c r="J207" t="s">
+        <v>63</v>
+      </c>
+      <c r="K207" t="s">
+        <v>7</v>
+      </c>
+      <c r="L207" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G211" s="3" t="s">
+    <row r="212" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G212" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H211">
+      <c r="H212">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G212" s="5" t="s">
+    <row r="213" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G213" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H212">
+      <c r="H213">
         <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G214" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H214">
-        <f>COUNTIF(I2:I206,"&gt;0")</f>
-        <v>182</v>
       </c>
     </row>
     <row r="215" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G215" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H215">
+        <f>COUNTIF(I2:I207,"&gt;0")</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="216" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G216" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H215">
-        <f>COUNT(I2:I206)</f>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G216" t="s">
+      <c r="H216">
+        <f>COUNT(I2:I207)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
         <v>61</v>
       </c>
-      <c r="H216">
-        <f>COUNTIF(I2:I206,"&lt;1")</f>
+      <c r="H217">
+        <f>COUNTIF(I2:I207,"&lt;1")</f>
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G218" t="s">
+    <row r="219" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G219" t="s">
         <v>62</v>
       </c>
-      <c r="H218">
-        <f>SUM(H2:H206)/H214</f>
-        <v>4.6071428571428568</v>
-      </c>
-      <c r="I218">
-        <f>SUM(I2:I206)/H214</f>
-        <v>12.032967032967033</v>
+      <c r="H219">
+        <f>SUM(H2:H207)/H215</f>
+        <v>4.6065573770491799</v>
+      </c>
+      <c r="I219">
+        <f>SUM(I2:I207)/H215</f>
+        <v>12.590163934426229</v>
       </c>
     </row>
   </sheetData>
